--- a/medicine/Sexualité et sexologie/Le_Coprophile/Le_Coprophile.xlsx
+++ b/medicine/Sexualité et sexologie/Le_Coprophile/Le_Coprophile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Coprophile est un roman de Thomas Hairmont publié en 2011 aux éditions P.O.L, et ayant obtenu le prix Sade la même année[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Coprophile est un roman de Thomas Hairmont publié en 2011 aux éditions P.O.L, et ayant obtenu le prix Sade la même année.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Le narrateur, mathématicien, vit un processus psychologique de dégradation et de transformation accompagné d'une rencontre amoureuse et sexuelle avec une femme. Ce personnage est le prétexte à une description précise de l'excrément et de ses avatars sensoriels, symboliques et potentiellement dérangeants[2],[3],[4],[5],[6],[7]. »
+« Le narrateur, mathématicien, vit un processus psychologique de dégradation et de transformation accompagné d'une rencontre amoureuse et sexuelle avec une femme. Ce personnage est le prétexte à une description précise de l'excrément et de ses avatars sensoriels, symboliques et potentiellement dérangeants. »
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Édition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Thomas Hairmont, Le Coprophile, Paris, P.O.L, 2011  (ISBN 9782818006405)</t>
         </is>
